--- a/Code/Results/Cases/Case_3_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_86/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.8464204565205</v>
+        <v>12.04903736828209</v>
       </c>
       <c r="C2">
-        <v>17.36911197633322</v>
+        <v>9.635483778350785</v>
       </c>
       <c r="D2">
-        <v>4.229922666544705</v>
+        <v>5.283040473236317</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.21400161498559</v>
+        <v>32.58119619088582</v>
       </c>
       <c r="G2">
-        <v>2.043515565802345</v>
+        <v>3.630382603296448</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.34977569950448</v>
+        <v>24.67712829652954</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.01880311135682</v>
+        <v>19.97068109752786</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.55065097806807</v>
+        <v>11.61348796866855</v>
       </c>
       <c r="C3">
-        <v>16.13632874196231</v>
+        <v>9.088424819342666</v>
       </c>
       <c r="D3">
-        <v>4.221830855860141</v>
+        <v>5.282301887135214</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.9566604458665</v>
+        <v>31.96636925061955</v>
       </c>
       <c r="G3">
-        <v>2.055571125213675</v>
+        <v>3.634338372838222</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.24349839359572</v>
+        <v>24.43862110990388</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.66566045948312</v>
+        <v>19.37051244932731</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.71389287253528</v>
+        <v>11.34203739984712</v>
       </c>
       <c r="C4">
-        <v>15.34253432107471</v>
+        <v>8.737879024933424</v>
       </c>
       <c r="D4">
-        <v>4.219821597163874</v>
+        <v>5.282339168516243</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.5488711593334</v>
+        <v>31.59232899849037</v>
       </c>
       <c r="G4">
-        <v>2.063085870294206</v>
+        <v>3.636889321778836</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.56853099356811</v>
+        <v>24.29670738514301</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.17629619392736</v>
+        <v>19.0009097405942</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.36240510932017</v>
+        <v>11.23062014375998</v>
       </c>
       <c r="C5">
-        <v>15.00959206546419</v>
+        <v>8.591507609217587</v>
       </c>
       <c r="D5">
-        <v>4.219672499646592</v>
+        <v>5.282476263061575</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.96993775775539</v>
+        <v>31.44097248317535</v>
       </c>
       <c r="G5">
-        <v>2.066181088807198</v>
+        <v>3.637959686365243</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.29461084088712</v>
+        <v>24.24005681321824</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.55706970617409</v>
+        <v>18.85026831684099</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.30340223852284</v>
+        <v>11.21207769328428</v>
       </c>
       <c r="C6">
-        <v>14.95373018733683</v>
+        <v>8.56699546292819</v>
       </c>
       <c r="D6">
-        <v>4.21968616157549</v>
+        <v>5.282506345485499</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.87349921197694</v>
+        <v>31.41591007732244</v>
       </c>
       <c r="G6">
-        <v>2.066697158705617</v>
+        <v>3.638139285631195</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.24919790087846</v>
+        <v>24.23072247026235</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.45347568882049</v>
+        <v>18.82526044323104</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.70919530424823</v>
+        <v>11.3405377289375</v>
       </c>
       <c r="C7">
-        <v>15.33808271503688</v>
+        <v>8.735919027567389</v>
       </c>
       <c r="D7">
-        <v>4.219816967485736</v>
+        <v>5.28234052585245</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.54108428738211</v>
+        <v>31.59028316843727</v>
       </c>
       <c r="G7">
-        <v>2.063127474604125</v>
+        <v>3.636903632075962</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.56483209944324</v>
+        <v>24.29593854392802</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.16799622257264</v>
+        <v>18.99887790047422</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.40808323465002</v>
+        <v>11.8998163627169</v>
       </c>
       <c r="C8">
-        <v>16.95157581101057</v>
+        <v>9.449986357910285</v>
       </c>
       <c r="D8">
-        <v>4.226471074596269</v>
+        <v>5.28268304769168</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.44027231586</v>
+        <v>32.36860229989759</v>
       </c>
       <c r="G8">
-        <v>2.047651896633584</v>
+        <v>3.631721292199265</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.96745325916589</v>
+        <v>24.59397620335673</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.2159608574733</v>
+        <v>19.76411697961651</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.42069478099195</v>
+        <v>12.95625085061589</v>
       </c>
       <c r="C9">
-        <v>19.83292785564199</v>
+        <v>10.72835657531639</v>
       </c>
       <c r="D9">
-        <v>4.266841585706576</v>
+        <v>5.287315702895419</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.95239050298601</v>
+        <v>33.91379922458731</v>
       </c>
       <c r="G9">
-        <v>2.01795585105511</v>
+        <v>3.622521456838308</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.75371007051114</v>
+        <v>25.21244472375709</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.90092527477956</v>
+        <v>21.24572212415582</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.45123974393729</v>
+        <v>13.69788813672482</v>
       </c>
       <c r="C10">
-        <v>21.79285698725046</v>
+        <v>11.59452545477743</v>
       </c>
       <c r="D10">
-        <v>4.319478098944772</v>
+        <v>5.293224876311932</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.91160142505289</v>
+        <v>35.04929556525845</v>
       </c>
       <c r="G10">
-        <v>1.996126895149604</v>
+        <v>3.61634079351384</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.83276584817649</v>
+        <v>25.68483642728819</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.01091206178038</v>
+        <v>22.30992548471249</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.33813951152741</v>
+        <v>14.02603709867504</v>
       </c>
       <c r="C11">
-        <v>22.65440968933403</v>
+        <v>12.00285603937058</v>
       </c>
       <c r="D11">
-        <v>4.350200687455104</v>
+        <v>5.29647615096927</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.72386390897669</v>
+        <v>35.56362182883305</v>
       </c>
       <c r="G11">
-        <v>1.986074198875913</v>
+        <v>3.613652841519106</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.79066265779372</v>
+        <v>25.90303090203815</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.90247085486327</v>
+        <v>22.78641877336087</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.66895089751833</v>
+        <v>14.14884926060178</v>
       </c>
       <c r="C12">
-        <v>22.97673574886171</v>
+        <v>12.1539622573804</v>
       </c>
       <c r="D12">
-        <v>4.363000979646444</v>
+        <v>5.297789797138251</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.4424454648674</v>
+        <v>35.75788326216966</v>
       </c>
       <c r="G12">
-        <v>1.98223665312586</v>
+        <v>3.612652625751135</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.15583900318562</v>
+        <v>25.98607636737838</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.62633111546013</v>
+        <v>22.96558600019056</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.59792459356045</v>
+        <v>14.12246579855879</v>
       </c>
       <c r="C13">
-        <v>22.90748468665257</v>
+        <v>12.12157510568244</v>
       </c>
       <c r="D13">
-        <v>4.360188772329311</v>
+        <v>5.297503189319714</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.2877617439427</v>
+        <v>35.71607078490672</v>
       </c>
       <c r="G13">
-        <v>1.983064757004313</v>
+        <v>3.612867257035157</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.07706887838678</v>
+        <v>25.96817324121529</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.47000993894358</v>
+        <v>22.92705823658411</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.36545501982389</v>
+        <v>14.03617066006642</v>
       </c>
       <c r="C14">
-        <v>22.68100383511471</v>
+        <v>12.01535808424609</v>
       </c>
       <c r="D14">
-        <v>4.351229134901232</v>
+        <v>5.296582564471177</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.78301860273989</v>
+        <v>35.57961493325161</v>
       </c>
       <c r="G14">
-        <v>1.985759187616376</v>
+        <v>3.613570200108333</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.82065196593775</v>
+        <v>25.90985500179023</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.96184041845761</v>
+        <v>22.8011853708182</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.22241240618493</v>
+        <v>13.9831200485906</v>
       </c>
       <c r="C15">
-        <v>22.54177934444183</v>
+        <v>11.94983921234527</v>
       </c>
       <c r="D15">
-        <v>4.345899466039701</v>
+        <v>5.296029437114068</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.47359876446015</v>
+        <v>35.49596099532999</v>
       </c>
       <c r="G15">
-        <v>1.987405139639244</v>
+        <v>3.614003068182904</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.66393278785177</v>
+        <v>25.87418645070265</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.65171619130991</v>
+        <v>22.72391426155774</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.39255945860776</v>
+        <v>13.67624622392831</v>
       </c>
       <c r="C16">
-        <v>21.73598040627038</v>
+        <v>11.56734666078624</v>
       </c>
       <c r="D16">
-        <v>4.317622074957078</v>
+        <v>5.293023857029421</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.79449077566269</v>
+        <v>35.01562260650913</v>
       </c>
       <c r="G16">
-        <v>1.996780346569414</v>
+        <v>3.616518934862659</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.77046245985129</v>
+        <v>25.6706386686088</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.88807814086596</v>
+        <v>22.27861687699651</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.87421984043112</v>
+        <v>13.4855328977761</v>
       </c>
       <c r="C17">
-        <v>21.23421824519996</v>
+        <v>11.34396974418851</v>
       </c>
       <c r="D17">
-        <v>4.302133822856141</v>
+        <v>5.291325330141154</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.76701124922366</v>
+        <v>34.72024924208548</v>
       </c>
       <c r="G17">
-        <v>2.002491985786689</v>
+        <v>3.618093918641153</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.22586623603468</v>
+        <v>25.54657548083571</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.8144419655086</v>
+        <v>22.00336013631491</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.57260386249763</v>
+        <v>13.37497766965713</v>
       </c>
       <c r="C18">
-        <v>20.9427646618567</v>
+        <v>11.21649192887282</v>
       </c>
       <c r="D18">
-        <v>4.293849727008295</v>
+        <v>5.290401303366228</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.17488938386845</v>
+        <v>34.55016014990085</v>
       </c>
       <c r="G18">
-        <v>2.005766584672335</v>
+        <v>3.61901145511063</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.91371450499752</v>
+        <v>25.47553166802438</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.19864188777643</v>
+        <v>21.84433202672322</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.46987661298748</v>
+        <v>13.33740156314732</v>
       </c>
       <c r="C19">
-        <v>20.84358245654564</v>
+        <v>11.17303707440226</v>
       </c>
       <c r="D19">
-        <v>4.291146961516412</v>
+        <v>5.290097487521658</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.97418308876054</v>
+        <v>34.49254261820725</v>
       </c>
       <c r="G19">
-        <v>2.006873837469123</v>
+        <v>3.619324121590498</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.80819480281469</v>
+        <v>25.45153304833912</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.99032833306295</v>
+        <v>21.7903719078998</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.92975643769376</v>
+        <v>13.50592481553704</v>
       </c>
       <c r="C20">
-        <v>21.28792433693965</v>
+        <v>11.36742337467497</v>
       </c>
       <c r="D20">
-        <v>4.303716709222276</v>
+        <v>5.291500653322976</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.87649963346922</v>
+        <v>34.75171410812464</v>
       </c>
       <c r="G20">
-        <v>2.001885152165003</v>
+        <v>3.617925054398422</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.2837228892494</v>
+        <v>25.55975011021554</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.92852644898645</v>
+        <v>22.03273625452838</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.43387159364509</v>
+        <v>14.0615579191735</v>
       </c>
       <c r="C21">
-        <v>22.74762982864356</v>
+        <v>12.04665199011344</v>
       </c>
       <c r="D21">
-        <v>4.353827382736554</v>
+        <v>5.296850724759552</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.93132306433689</v>
+        <v>35.61971039306346</v>
       </c>
       <c r="G21">
-        <v>1.984968727327506</v>
+        <v>3.613363250611613</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.89589455406955</v>
+        <v>25.92697352436382</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>41.11085332938001</v>
+        <v>22.83819307028009</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.38765981289533</v>
+        <v>14.41619335764533</v>
       </c>
       <c r="C22">
-        <v>23.67898465685155</v>
+        <v>12.47994308546594</v>
       </c>
       <c r="D22">
-        <v>4.393502639738838</v>
+        <v>5.300828605157418</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.02041676554121</v>
+        <v>36.18398656541329</v>
       </c>
       <c r="G22">
-        <v>1.973724220239892</v>
+        <v>3.610484685120364</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.96433004930462</v>
+        <v>26.16939730334546</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.23821592944958</v>
+        <v>23.35713158049209</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.88119215475097</v>
+        <v>14.22773284630506</v>
       </c>
       <c r="C23">
-        <v>23.18382773299227</v>
+        <v>12.25055843486618</v>
       </c>
       <c r="D23">
-        <v>4.371616952625787</v>
+        <v>5.298661015938275</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.90600123732521</v>
+        <v>35.88315565453865</v>
       </c>
       <c r="G23">
-        <v>1.979748275748808</v>
+        <v>3.612011662827915</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.39242040960442</v>
+        <v>26.03980778334833</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.09651914730286</v>
+        <v>23.08090154097619</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.90465962299167</v>
+        <v>13.49670845935658</v>
       </c>
       <c r="C24">
-        <v>21.26365313565966</v>
+        <v>11.35682550961906</v>
       </c>
       <c r="D24">
-        <v>4.302999167986806</v>
+        <v>5.291421226364672</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.82700440645394</v>
+        <v>34.73748968473009</v>
       </c>
       <c r="G24">
-        <v>2.002159529042551</v>
+        <v>3.618001360356856</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.25756300487642</v>
+        <v>25.55379297848965</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.87694465393611</v>
+        <v>22.01945772549675</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.63870941479619</v>
+        <v>12.67587086397354</v>
       </c>
       <c r="C25">
-        <v>19.08223845416191</v>
+        <v>10.39626743652018</v>
       </c>
       <c r="D25">
-        <v>4.252405640980699</v>
+        <v>5.285628911248629</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.47902612566774</v>
+        <v>33.49494030333102</v>
       </c>
       <c r="G25">
-        <v>2.025957263961453</v>
+        <v>3.624908063361131</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.99551466112111</v>
+        <v>25.04176553246887</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.38445435816239</v>
+        <v>20.84832377353973</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_86/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.04903736828209</v>
+        <v>18.84642045652043</v>
       </c>
       <c r="C2">
-        <v>9.635483778350785</v>
+        <v>17.36911197633308</v>
       </c>
       <c r="D2">
-        <v>5.283040473236317</v>
+        <v>4.229922666544699</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.58119619088582</v>
+        <v>39.21400161498562</v>
       </c>
       <c r="G2">
-        <v>3.630382603296448</v>
+        <v>2.04351556580221</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.67712829652954</v>
+        <v>25.34977569950454</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97068109752786</v>
+        <v>30.01880311135674</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.61348796866855</v>
+        <v>17.55065097806792</v>
       </c>
       <c r="C3">
-        <v>9.088424819342666</v>
+        <v>16.13632874196221</v>
       </c>
       <c r="D3">
-        <v>5.282301887135214</v>
+        <v>4.221830855860094</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.96636925061955</v>
+        <v>36.95666044586653</v>
       </c>
       <c r="G3">
-        <v>3.634338372838222</v>
+        <v>2.055571125213543</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.43862110990388</v>
+        <v>24.24349839359583</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.37051244932731</v>
+        <v>27.66566045948308</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.34203739984712</v>
+        <v>16.71389287253526</v>
       </c>
       <c r="C4">
-        <v>8.737879024933424</v>
+        <v>15.34253432107478</v>
       </c>
       <c r="D4">
-        <v>5.282339168516243</v>
+        <v>4.219821597163884</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.59232899849037</v>
+        <v>35.54887115933351</v>
       </c>
       <c r="G4">
-        <v>3.636889321778836</v>
+        <v>2.063085870294072</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.29670738514301</v>
+        <v>23.5685309935682</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.0009097405942</v>
+        <v>26.17629619392745</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.23062014375998</v>
+        <v>16.36240510932012</v>
       </c>
       <c r="C5">
-        <v>8.591507609217587</v>
+        <v>15.00959206546388</v>
       </c>
       <c r="D5">
-        <v>5.282476263061575</v>
+        <v>4.219672499646757</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.44097248317535</v>
+        <v>34.96993775775561</v>
       </c>
       <c r="G5">
-        <v>3.637959686365243</v>
+        <v>2.066181088807331</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.24005681321824</v>
+        <v>23.29461084088729</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.85026831684099</v>
+        <v>25.55706970617403</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.21207769328428</v>
+        <v>16.30340223852282</v>
       </c>
       <c r="C6">
-        <v>8.56699546292819</v>
+        <v>14.95373018733678</v>
       </c>
       <c r="D6">
-        <v>5.282506345485499</v>
+        <v>4.219686161575511</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.41591007732244</v>
+        <v>34.87349921197701</v>
       </c>
       <c r="G6">
-        <v>3.638139285631195</v>
+        <v>2.066697158706146</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.23072247026235</v>
+        <v>23.24919790087856</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.82526044323104</v>
+        <v>25.45347568882049</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.3405377289375</v>
+        <v>16.70919530424827</v>
       </c>
       <c r="C7">
-        <v>8.735919027567389</v>
+        <v>15.33808271503679</v>
       </c>
       <c r="D7">
-        <v>5.28234052585245</v>
+        <v>4.219816967485854</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.59028316843727</v>
+        <v>35.54108428738213</v>
       </c>
       <c r="G7">
-        <v>3.636903632075962</v>
+        <v>2.063127474604128</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.29593854392802</v>
+        <v>23.56483209944325</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.99887790047422</v>
+        <v>26.16799622257266</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.8998163627169</v>
+        <v>18.40808323464979</v>
       </c>
       <c r="C8">
-        <v>9.449986357910285</v>
+        <v>16.95157581101064</v>
       </c>
       <c r="D8">
-        <v>5.28268304769168</v>
+        <v>4.226471074596308</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.36860229989759</v>
+        <v>38.44027231586</v>
       </c>
       <c r="G8">
-        <v>3.631721292199265</v>
+        <v>2.047651896633718</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.59397620335673</v>
+        <v>24.96745325916599</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76411697961651</v>
+        <v>29.21596085747332</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.95625085061589</v>
+        <v>21.42069478099194</v>
       </c>
       <c r="C9">
-        <v>10.72835657531639</v>
+        <v>19.83292785564201</v>
       </c>
       <c r="D9">
-        <v>5.287315702895419</v>
+        <v>4.266841585706676</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.91379922458731</v>
+        <v>43.95239050298612</v>
       </c>
       <c r="G9">
-        <v>3.622521456838308</v>
+        <v>2.017955851055112</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.21244472375709</v>
+        <v>27.75371007051123</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.24572212415582</v>
+        <v>34.90092527477955</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.69788813672482</v>
+        <v>23.4512397439372</v>
       </c>
       <c r="C10">
-        <v>11.59452545477743</v>
+        <v>21.7928569872505</v>
       </c>
       <c r="D10">
-        <v>5.293224876311932</v>
+        <v>4.319478098944904</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.04929556525845</v>
+        <v>47.911601425053</v>
       </c>
       <c r="G10">
-        <v>3.61634079351384</v>
+        <v>1.996126895149466</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.68483642728819</v>
+        <v>29.8327658481766</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.30992548471249</v>
+        <v>39.01091206178025</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.02603709867504</v>
+        <v>24.3381395115275</v>
       </c>
       <c r="C11">
-        <v>12.00285603937058</v>
+        <v>22.65440968933423</v>
       </c>
       <c r="D11">
-        <v>5.29647615096927</v>
+        <v>4.350200687455187</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.56362182883305</v>
+        <v>49.72386390897703</v>
       </c>
       <c r="G11">
-        <v>3.613652841519106</v>
+        <v>1.98607419887578</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.90303090203815</v>
+        <v>30.79066265779388</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.78641877336087</v>
+        <v>40.90247085486337</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.14884926060178</v>
+        <v>24.66895089751835</v>
       </c>
       <c r="C12">
-        <v>12.1539622573804</v>
+        <v>22.97673574886173</v>
       </c>
       <c r="D12">
-        <v>5.297789797138251</v>
+        <v>4.36300097964653</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.75788326216966</v>
+        <v>50.44244546486743</v>
       </c>
       <c r="G12">
-        <v>3.612652625751135</v>
+        <v>1.982236653125858</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.98607636737838</v>
+        <v>31.15583900318565</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.96558600019056</v>
+        <v>41.62633111546013</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.12246579855879</v>
+        <v>24.59792459356038</v>
       </c>
       <c r="C13">
-        <v>12.12157510568244</v>
+        <v>22.9074846866525</v>
       </c>
       <c r="D13">
-        <v>5.297503189319714</v>
+        <v>4.360188772329394</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.71607078490672</v>
+        <v>50.28776174394266</v>
       </c>
       <c r="G13">
-        <v>3.612867257035157</v>
+        <v>1.983064757004313</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.96817324121529</v>
+        <v>31.07706887838679</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.92705823658411</v>
+        <v>41.47000993894346</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.03617066006642</v>
+        <v>24.36545501982386</v>
       </c>
       <c r="C14">
-        <v>12.01535808424609</v>
+        <v>22.68100383511468</v>
       </c>
       <c r="D14">
-        <v>5.296582564471177</v>
+        <v>4.351229134901224</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.57961493325161</v>
+        <v>49.7830186027399</v>
       </c>
       <c r="G14">
-        <v>3.613570200108333</v>
+        <v>1.985759187616502</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.90985500179023</v>
+        <v>30.8206519659378</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.8011853708182</v>
+        <v>40.9618404184576</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.9831200485906</v>
+        <v>24.2224124061851</v>
       </c>
       <c r="C15">
-        <v>11.94983921234527</v>
+        <v>22.54177934444205</v>
       </c>
       <c r="D15">
-        <v>5.296029437114068</v>
+        <v>4.345899466039772</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.49596099532999</v>
+        <v>49.47359876446076</v>
       </c>
       <c r="G15">
-        <v>3.614003068182904</v>
+        <v>1.987405139639641</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.87418645070265</v>
+        <v>30.66393278785206</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.72391426155774</v>
+        <v>40.65171619131007</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.67624622392831</v>
+        <v>23.39255945860771</v>
       </c>
       <c r="C16">
-        <v>11.56734666078624</v>
+        <v>21.73598040627037</v>
       </c>
       <c r="D16">
-        <v>5.293023857029421</v>
+        <v>4.317622074957144</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.01562260650913</v>
+        <v>47.79449077566277</v>
       </c>
       <c r="G16">
-        <v>3.616518934862659</v>
+        <v>1.996780346569419</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.6706386686088</v>
+        <v>29.77046245985136</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.27861687699651</v>
+        <v>38.88807814086601</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.4855328977761</v>
+        <v>22.87421984043111</v>
       </c>
       <c r="C17">
-        <v>11.34396974418851</v>
+        <v>21.23421824520006</v>
       </c>
       <c r="D17">
-        <v>5.291325330141154</v>
+        <v>4.302133822856255</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.72024924208548</v>
+        <v>46.76701124922378</v>
       </c>
       <c r="G17">
-        <v>3.618093918641153</v>
+        <v>2.002491985786556</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.54657548083571</v>
+        <v>29.22586623603478</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.00336013631491</v>
+        <v>37.81444196550856</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.37497766965713</v>
+        <v>22.57260386249768</v>
       </c>
       <c r="C18">
-        <v>11.21649192887282</v>
+        <v>20.94276466185685</v>
       </c>
       <c r="D18">
-        <v>5.290401303366228</v>
+        <v>4.293849727008308</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.55016014990085</v>
+        <v>46.17488938386862</v>
       </c>
       <c r="G18">
-        <v>3.61901145511063</v>
+        <v>2.005766584672465</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.47553166802438</v>
+        <v>28.91371450499763</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.84433202672322</v>
+        <v>37.1986418877765</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.33740156314732</v>
+        <v>22.4698766129874</v>
       </c>
       <c r="C19">
-        <v>11.17303707440226</v>
+        <v>20.8435824565456</v>
       </c>
       <c r="D19">
-        <v>5.290097487521658</v>
+        <v>4.291146961516405</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.49254261820725</v>
+        <v>45.97418308876064</v>
       </c>
       <c r="G19">
-        <v>3.619324121590498</v>
+        <v>2.006873837469128</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.45153304833912</v>
+        <v>28.80819480281475</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.7903719078998</v>
+        <v>36.99032833306311</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.50592481553704</v>
+        <v>22.9297564376938</v>
       </c>
       <c r="C20">
-        <v>11.36742337467497</v>
+        <v>21.28792433693961</v>
       </c>
       <c r="D20">
-        <v>5.291500653322976</v>
+        <v>4.303716709222336</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.75171410812464</v>
+        <v>46.87649963346938</v>
       </c>
       <c r="G20">
-        <v>3.617925054398422</v>
+        <v>2.001885152165008</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.55975011021554</v>
+        <v>29.28372288924951</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.03273625452838</v>
+        <v>37.92852644898645</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.0615579191735</v>
+        <v>24.43387159364498</v>
       </c>
       <c r="C21">
-        <v>12.04665199011344</v>
+        <v>22.74762982864345</v>
       </c>
       <c r="D21">
-        <v>5.296850724759552</v>
+        <v>4.353827382736577</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.61971039306346</v>
+        <v>49.93132306433684</v>
       </c>
       <c r="G21">
-        <v>3.613363250611613</v>
+        <v>1.984968727327511</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.92697352436382</v>
+        <v>30.8958945540696</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.83819307028009</v>
+        <v>41.11085332938001</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.41619335764533</v>
+        <v>25.38765981289551</v>
       </c>
       <c r="C22">
-        <v>12.47994308546594</v>
+        <v>23.67898465685161</v>
       </c>
       <c r="D22">
-        <v>5.300828605157418</v>
+        <v>4.393502639738866</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.18398656541329</v>
+        <v>52.02041676554159</v>
       </c>
       <c r="G22">
-        <v>3.610484685120364</v>
+        <v>1.973724220239903</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.16939730334546</v>
+        <v>31.96433004930481</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.35713158049209</v>
+        <v>43.23821592944956</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.22773284630506</v>
+        <v>24.88119215475085</v>
       </c>
       <c r="C23">
-        <v>12.25055843486618</v>
+        <v>23.18382773299228</v>
       </c>
       <c r="D23">
-        <v>5.298661015938275</v>
+        <v>4.371616952625812</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.88315565453865</v>
+        <v>50.90600123732504</v>
       </c>
       <c r="G23">
-        <v>3.612011662827915</v>
+        <v>1.979748275749208</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.03980778334833</v>
+        <v>31.39242040960433</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.08090154097619</v>
+        <v>42.09651914730275</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.49670845935658</v>
+        <v>22.9046596229917</v>
       </c>
       <c r="C24">
-        <v>11.35682550961906</v>
+        <v>21.26365313565959</v>
       </c>
       <c r="D24">
-        <v>5.291421226364672</v>
+        <v>4.302999167986787</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.73748968473009</v>
+        <v>46.82700440645398</v>
       </c>
       <c r="G24">
-        <v>3.618001360356856</v>
+        <v>2.002159529042679</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.55379297848965</v>
+        <v>29.25756300487643</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.01945772549675</v>
+        <v>37.87694465393611</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.67587086397354</v>
+        <v>20.63870941479623</v>
       </c>
       <c r="C25">
-        <v>10.39626743652018</v>
+        <v>19.08223845416183</v>
       </c>
       <c r="D25">
-        <v>5.285628911248629</v>
+        <v>4.252405640980658</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.49494030333102</v>
+        <v>42.47902612566781</v>
       </c>
       <c r="G25">
-        <v>3.624908063361131</v>
+        <v>2.025957263961183</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.04176553246887</v>
+        <v>26.99551466112115</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84832377353973</v>
+        <v>33.38445435816228</v>
       </c>
       <c r="N25">
         <v>0</v>
